--- a/Texts/Город Сокровищ/Все персонажи/Элективайр.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Элективайр.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -55,6 +55,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Ÿ áôäô ñàä ðïäåìéóûòÿ üîåñãéåê,\nœóïáú ðïíïœû âàí òâÿèàóû ìýáúå âàšé\nðñéæíú.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How was the expedition? Was it\nfun enough for you? Ha ha ha!</t>
+  </si>
+  <si>
+    <t>Как прошла экспедиция? Вам\nбыло весело? Ха-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ëàë ðñïšìà üëòðåäéøéÿ? Âàí\náúìï âåòåìï? Öà-öà-öà!</t>
   </si>
 </sst>
 </file>
@@ -418,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,6 +491,20 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4">
+        <v>291</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Texts/Город Сокровищ/Все персонажи/Элективайр.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Элективайр.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Ëàë ðñïšìà üëòðåäéøéÿ? Âàí\náúìï âåòåìï? Öà-öà-öà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'d be good to see that [CS:N]Grovyle[CR]\ncaught soon!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Приятно знать, что [CS:N]Гровайл[CR]\nскоро будет пойман!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðñéÿóîï èîàóû, œóï [CS:N]Ãñïâàêì[CR]\nòëïñï áôäåó ðïêíàî!</t>
   </si>
 </sst>
 </file>
@@ -94,7 +103,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,11 +135,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -145,6 +163,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,17 +516,32 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6">
         <v>291</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>253</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Элективайр.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Элективайр.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -73,6 +73,51 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðñéÿóîï èîàóû, œóï [CS:N]Ãñïâàêì[CR]\nòëïñï áôäåó ðïêíàî!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I heard something that gave me\na short circuit!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Grovyle[CR] is really the good guy?\nAnd [CS:N]Dusknoir[CR] is the bad guy?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The world\'s a funny place. You\nnever know what to expect…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я тут такое слышал, что меня\nчуть не закоротило!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Гровайл[CR] на самом деле хороший?\nА [CS:N]Даскнуар[CR] плохой?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мир довольно ироничен. Никогда\nне знаешь, что от него ожидать...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ óôó óàëïå òìúšàì, œóï íåîÿ\nœôóû îå èàëïñïóéìï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [CS:N]Ãñïâàêì[CR] îà òàíïí äåìå öïñïšéê?\nÀ [CS:N]Äàòëîôàñ[CR] ðìïöïê?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íéñ äïâïìûîï éñïîéœåî. Îéëïãäà\nîå èîàåšû, œóï ïó îåãï ïçéäàóû...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Give it everything you\'ve got!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> If it would help, I\'ll pump up the\npower to link all the moves you need!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Выложитесь на полную!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Если это поможет, я заряжусь,\nчтобы связать все нужные вам приёмы!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âúìïçéóåòû îà ðïìîôý!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Åòìé üóï ðïíïçåó, ÿ èàñÿçôòû,\nœóïáú òâÿèàóû âòå îôçîúå âàí ðñéæíú!</t>
   </si>
 </sst>
 </file>
@@ -103,7 +148,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -144,11 +189,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -169,6 +225,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,17 +593,89 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8">
         <v>253</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>209</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B7" s="4">
+        <v>212</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6">
+        <v>215</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>174</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>177</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Элективайр.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Элективайр.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Åòìé üóï ðïíïçåó, ÿ èàñÿçôòû,\nœóïáú òâÿèàóû âòå îôçîúå âàí ðñéæíú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Graduated from the guild,\nI hear!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I\'m guessing my linking got you\nthrough, am I right?! Ha ha ha!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мне сказали, вы выпустились из\nгильдии!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, вам помогли мои связи,\nда?! Ха-ха-ха!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íîå òëàèàìé, âú âúðôòóéìéòû éè\nãéìûäéé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, âàí ðïíïãìé íïé òâÿèé,\näà?! Öà-öà-öà!</t>
   </si>
 </sst>
 </file>
@@ -513,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -665,17 +683,47 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
         <v>177</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>133</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
+        <v>136</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Элективайр.xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Элективайр.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -136,6 +136,60 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïöïçå, âàí ðïíïãìé íïé òâÿèé,\näà?! Öà-öà-öà!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> T-Team [CS:X]Ch-Charm[CR] is here,\nright?! I mean, at the guild?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whoaaah! Whoooaaah![K]\nWhoo-hoo-whoooaaah!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Здесь К-Команда [CS:X]Ш[CR]-[CS:X]Шарм[CR], да?!\nВ гильдии?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вааау! Ваааааау![K]\nВаау-вау-ваааааау!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Èäåòû Ë-Ëïíàîäà [CS:X]Š[CR]-[CS:X]Šàñí[CR], äà?!\nÂ ãéìûäéé?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàààô! Âààààààô![K]\nÂààô-âàô-âààààààô!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You throw everything you have\ninto this, you two!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You set that [CS:N]Darkrai[CR] straight!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> All right! You two are heroes!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It\'ll get peaceful in Treasure\nTown too. Thanks for that!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Покажите, на что вы, ребята,\nспособны!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Укажите [CS:N]Даркраю[CR] его место!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Чудесно! Вы настоящие герои!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Скоро в Город Сокровищ придёт\nпокой. Спасибо вам за всё!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïëàçéóå, îà œóï âú, ñåáÿóà,\nòðïòïáîú!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ôëàçéóå [CS:N]Äàñëñàý[CR] åãï íåòóï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œôäåòîï! Âú îàòóïÿþéå ãåñïé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Òëïñï â Ãïñïä Òïëñïâéþ ðñéäæó\nðïëïê. Òðàòéáï âàí èà âòæ!</t>
   </si>
 </sst>
 </file>
@@ -531,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,6 +780,92 @@
         <v>38</v>
       </c>
     </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>106</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
+        <v>109</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>51</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6">
+        <v>54</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="4">
+        <v>24</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
